--- a/src/main/java/com/phptravels/testdata/testData.xlsx
+++ b/src/main/java/com/phptravels/testdata/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PixelogicTest\src\main\java\com\phptravels\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D546BD9-3E2D-43E2-97A0-1C4886C62785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584D6138-84A6-4E64-9F9D-A7F9C7AB2DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,15 +63,9 @@
     <t>Mohamed</t>
   </si>
   <si>
-    <t>abcd123qwe@gmail.com</t>
-  </si>
-  <si>
     <t>01053275049</t>
   </si>
   <si>
-    <t>loki87hgf3@gmail.com</t>
-  </si>
-  <si>
     <t>Adg245amg456</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>01258966634</t>
   </si>
   <si>
-    <t>lokijuh76tg@hotmail.com</t>
-  </si>
-  <si>
     <t>trfdAb2jhaywm</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
     <t>01236978413</t>
   </si>
   <si>
-    <t>adamg124@gmail.com</t>
-  </si>
-  <si>
     <t>teeeeTeeee2</t>
   </si>
   <si>
@@ -105,13 +93,25 @@
     <t>01475639874</t>
   </si>
   <si>
-    <t>asdqwer@yahoo.com</t>
-  </si>
-  <si>
     <t>asd123Gbnj</t>
   </si>
   <si>
     <t>asdyrb14563</t>
+  </si>
+  <si>
+    <t>ab2cd12983qwe@gmail.com</t>
+  </si>
+  <si>
+    <t>lo982ki87hgf3@gmail.com</t>
+  </si>
+  <si>
+    <t>lok2793ijuh76tg@hotmail.com</t>
+  </si>
+  <si>
+    <t>ada17mg124@gmail.com</t>
+  </si>
+  <si>
+    <t>as23dq678wer@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +533,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -550,36 +550,36 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -587,39 +587,39 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
